--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,104 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>66300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>330000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>131200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -768,16 +782,22 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>198800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,16 +836,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>64200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,66 +902,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>18700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>32500</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,28 +988,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>361900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -965,22 +1019,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-27400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+        <v>-31900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1073,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-140600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+        <v>-10500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,13 +1104,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-147800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1065,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,28 +1174,34 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1123,37 +1209,49 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-7300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,28 +1279,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1210,28 +1314,34 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1489,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>140600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+        <v>10500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,28 +1524,34 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,28 +1594,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1471,42 +1629,54 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,26 +1703,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>194700</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,37 +1769,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>60600</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>112700</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,83 +1839,101 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>332800</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>414000</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>414000</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>414000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>414000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>414000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1944,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>68100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>44200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3440800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3453500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +2084,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>7400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,37 +2154,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3823100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3838200</v>
+      </c>
+      <c r="F54" s="3">
         <v>414800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>415900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>416100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,132 +2223,158 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>9200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>109300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>184000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>509000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>509400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,37 +2394,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15400</v>
+        <v>821200</v>
       </c>
       <c r="E62" s="3">
-        <v>15400</v>
+        <v>667500</v>
       </c>
       <c r="F62" s="3">
         <v>15400</v>
       </c>
       <c r="G62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,37 +2534,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1877400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1753800</v>
+      </c>
+      <c r="F66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,28 +2724,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,28 +2864,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1945700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2084400</v>
+      </c>
+      <c r="F76" s="3">
         <v>395900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>398500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>399600</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,62 +2934,74 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,28 +3234,34 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-12400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,16 +3389,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-12400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-67300</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2952,20 +3412,26 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,22 +3579,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>210200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3122,62 +3614,80 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>157700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,20 +719,23 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E8" s="3">
         <v>66300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>330000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,8 +748,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -753,20 +757,23 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E9" s="3">
         <v>38200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,20 +795,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E10" s="3">
         <v>28100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>198800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,20 +851,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E12" s="3">
         <v>15700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>64200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,20 +925,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>9800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -934,8 +954,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -943,20 +963,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,8 +992,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1016,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E17" s="3">
         <v>93700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,20 +1052,23 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,20 +1108,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-140600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10500</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,17 +1144,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-147800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,31 +1220,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-168000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,20 +1258,23 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1241,8 +1287,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1334,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-169400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1372,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-142300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,20 +1562,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>140600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10500</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,31 +1600,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-142300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1676,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-142300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,29 +1791,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>473100</v>
+      </c>
+      <c r="E41" s="3">
         <v>220700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>194700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,20 +1865,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E43" s="3">
         <v>60600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +1894,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,32 +1941,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,32 +1979,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>570300</v>
+      </c>
+      <c r="E46" s="3">
         <v>305300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>332800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,7 +2032,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>414000</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>414000</v>
@@ -1935,8 +2040,8 @@
       <c r="H47" s="3">
         <v>414000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>414000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1950,20 +2055,23 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,8 +2084,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1985,20 +2093,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3423000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3440800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3453500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2122,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,20 +2207,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2116,8 +2236,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,32 +2283,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4070800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3823100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3838200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>414800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>415900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>416100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,32 +2355,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E57" s="3">
         <v>51600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,20 +2391,23 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2420,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2295,32 +2429,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>408900</v>
+      </c>
+      <c r="E59" s="3">
         <v>121800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,32 +2467,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>473600</v>
+      </c>
+      <c r="E60" s="3">
         <v>181400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>184000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,20 +2505,23 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>504800</v>
+      </c>
+      <c r="E61" s="3">
         <v>509000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>509400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2400,19 +2543,22 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>657600</v>
+      </c>
+      <c r="E62" s="3">
         <v>821200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>667500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>15400</v>
       </c>
       <c r="G62" s="3">
         <v>15400</v>
@@ -2421,11 +2567,11 @@
         <v>15400</v>
       </c>
       <c r="I62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,32 +2695,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1955700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1877400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1753800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,31 +2901,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,31 +3053,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2115100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1945700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2084400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>395900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>398500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>399600</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,31 +3172,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-142300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,17 +3228,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E83" s="3">
         <v>20200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3255,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,31 +3454,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>39300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,17 +3510,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3537,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,25 +3622,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3421,8 +3651,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,25 +3828,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>210200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3620,17 +3866,20 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3895,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3655,31 +3904,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E102" s="3">
         <v>25000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>157700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,23 +722,26 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E8" s="3">
         <v>78100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>330000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,8 +754,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -760,23 +763,26 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E9" s="3">
         <v>39600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,23 +804,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E10" s="3">
         <v>38500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>198800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,23 +864,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>64200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +944,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E14" s="3">
         <v>7200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +976,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -966,23 +985,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1017,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,34 +1042,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E17" s="3">
         <v>91100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>93700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>361900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1055,23 +1081,26 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,23 +1141,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-140600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,20 +1180,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-147800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,34 +1262,37 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-168000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1261,23 +1303,26 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1335,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1299,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,34 +1385,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-169400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1375,34 +1426,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-142300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,23 +1631,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>140600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,34 +1672,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-142300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,34 +1754,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-142300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1717,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E41" s="3">
         <v>473100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>220700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>194700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,23 +1957,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E43" s="3">
         <v>67600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1897,8 +1989,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1906,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,35 +2039,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E45" s="3">
         <v>29600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,35 +2080,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E46" s="3">
         <v>570300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>305300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>332800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2139,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>414000</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>414000</v>
@@ -2043,8 +2147,8 @@
       <c r="I47" s="3">
         <v>414000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>414000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2058,23 +2162,26 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E48" s="3">
         <v>67000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2194,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2096,23 +2203,26 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4986600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3423000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3440800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3453500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2235,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,23 +2326,26 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2358,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2408,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5289200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4070800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3823100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3838200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>415900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>416100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,35 +2485,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E57" s="3">
         <v>58300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,23 +2524,26 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,8 +2556,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2432,35 +2565,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E59" s="3">
         <v>408900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,35 +2606,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E60" s="3">
         <v>473600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>181400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>184000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,23 +2647,26 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>869600</v>
+      </c>
+      <c r="E61" s="3">
         <v>504800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>509000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>509400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2546,22 +2688,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>717100</v>
+      </c>
+      <c r="E62" s="3">
         <v>657600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>821200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>667500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>15400</v>
       </c>
       <c r="H62" s="3">
         <v>15400</v>
@@ -2570,11 +2715,11 @@
         <v>15400</v>
       </c>
       <c r="J62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +2852,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2182500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1955700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1877400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1753800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,34 +3074,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-152000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-131500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,34 +3238,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3106700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2115100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1945700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2084400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>395900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>398500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>399600</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,34 +3366,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-142300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,20 +3426,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E83" s="3">
         <v>20800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3258,8 +3456,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3267,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,34 +3670,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,20 +3730,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3760,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3549,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,28 +3851,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-781500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3654,8 +3883,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3663,8 +3892,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,28 +4073,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>379700</v>
+      </c>
+      <c r="E100" s="3">
         <v>254000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>210200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3869,20 +4114,23 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4146,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3907,34 +4155,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-412200</v>
+      </c>
+      <c r="E102" s="3">
         <v>251100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>157700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3943,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -668,8 +668,8 @@
     <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -702,13 +702,13 @@
         <v>44255</v>
       </c>
       <c r="H7" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="I7" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="J7" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="K7" s="2">
         <v>43921</v>
@@ -740,16 +740,16 @@
         <v>66300</v>
       </c>
       <c r="G8" s="3">
-        <v>330000</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>81000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>84100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>83100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -781,16 +781,16 @@
         <v>38200</v>
       </c>
       <c r="G9" s="3">
-        <v>131200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>38400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -822,16 +822,16 @@
         <v>28100</v>
       </c>
       <c r="G10" s="3">
-        <v>198800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>42600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>52200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>52300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>15700</v>
       </c>
       <c r="G12" s="3">
-        <v>64200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>21000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -962,16 +962,16 @@
         <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1003,16 +1003,16 @@
         <v>3800</v>
       </c>
       <c r="G15" s="3">
-        <v>32500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1058,16 +1058,16 @@
         <v>93700</v>
       </c>
       <c r="G17" s="3">
-        <v>361900</v>
+        <v>121900</v>
       </c>
       <c r="H17" s="3">
-        <v>2600</v>
+        <v>83900</v>
       </c>
       <c r="I17" s="3">
-        <v>1100</v>
+        <v>76800</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>79300</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>-27400</v>
       </c>
       <c r="G18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-40900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1148,25 +1148,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20600</v>
+        <v>-20500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="F20" s="3">
-        <v>-140600</v>
+        <v>-140400</v>
       </c>
       <c r="G20" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>42800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-19300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1189,25 +1189,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24600</v>
+        <v>-24500</v>
       </c>
       <c r="E21" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="F21" s="3">
-        <v>-147800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-147600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1230,25 +1230,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1280,16 +1280,16 @@
         <v>-168000</v>
       </c>
       <c r="G23" s="3">
-        <v>-42400</v>
+        <v>1900</v>
       </c>
       <c r="H23" s="3">
-        <v>-2500</v>
+        <v>-17400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1100</v>
+        <v>-11300</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>-15600</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1321,16 +1321,16 @@
         <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>-31400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1403,16 +1403,16 @@
         <v>-169400</v>
       </c>
       <c r="G26" s="3">
-        <v>-35100</v>
+        <v>33300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2500</v>
+        <v>-27100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1100</v>
+        <v>-17500</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>-23800</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1444,16 +1444,16 @@
         <v>-142300</v>
       </c>
       <c r="G27" s="3">
-        <v>-37100</v>
+        <v>31200</v>
       </c>
       <c r="H27" s="3">
-        <v>-2500</v>
+        <v>-27100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1100</v>
+        <v>-17500</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-23800</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1640,25 +1640,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="E32" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F32" s="3">
-        <v>140600</v>
+        <v>140400</v>
       </c>
       <c r="G32" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-42800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>19300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1690,16 +1690,16 @@
         <v>-142300</v>
       </c>
       <c r="G33" s="3">
-        <v>-37100</v>
+        <v>31200</v>
       </c>
       <c r="H33" s="3">
-        <v>-2500</v>
+        <v>-27100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1100</v>
+        <v>-17500</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-23800</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1772,16 +1772,16 @@
         <v>-142300</v>
       </c>
       <c r="G35" s="3">
-        <v>-37100</v>
+        <v>31200</v>
       </c>
       <c r="H35" s="3">
-        <v>-2500</v>
+        <v>-27100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1100</v>
+        <v>-17500</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-23800</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>44255</v>
       </c>
       <c r="H38" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="I38" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="J38" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="K38" s="2">
         <v>43921</v>
@@ -1892,17 +1892,17 @@
       <c r="F41" s="3">
         <v>220700</v>
       </c>
-      <c r="G41" s="3">
-        <v>194700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1600</v>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1974,8 +1974,8 @@
       <c r="F43" s="3">
         <v>60600</v>
       </c>
-      <c r="G43" s="3">
-        <v>112700</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2056,17 +2056,17 @@
       <c r="F45" s="3">
         <v>23900</v>
       </c>
-      <c r="G45" s="3">
-        <v>25500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
@@ -2097,17 +2097,17 @@
       <c r="F46" s="3">
         <v>305300</v>
       </c>
-      <c r="G46" s="3">
-        <v>332800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2100</v>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3">
         <v>1300</v>
@@ -2138,17 +2138,17 @@
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>414000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>414000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>414000</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2179,8 +2179,8 @@
       <c r="F48" s="3">
         <v>68100</v>
       </c>
-      <c r="G48" s="3">
-        <v>44200</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2220,8 +2220,8 @@
       <c r="F49" s="3">
         <v>3440800</v>
       </c>
-      <c r="G49" s="3">
-        <v>3453500</v>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2343,8 +2343,8 @@
       <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
-        <v>7400</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2425,17 +2425,17 @@
       <c r="F54" s="3">
         <v>3823100</v>
       </c>
-      <c r="G54" s="3">
-        <v>3838200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>414800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>415900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>416100</v>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3">
         <v>1300</v>
@@ -2500,17 +2500,17 @@
       <c r="F57" s="3">
         <v>51600</v>
       </c>
-      <c r="G57" s="3">
-        <v>65400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2541,8 +2541,8 @@
       <c r="F58" s="3">
         <v>8100</v>
       </c>
-      <c r="G58" s="3">
-        <v>9200</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2582,17 +2582,17 @@
       <c r="F59" s="3">
         <v>121800</v>
       </c>
-      <c r="G59" s="3">
-        <v>109300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -2623,17 +2623,17 @@
       <c r="F60" s="3">
         <v>181400</v>
       </c>
-      <c r="G60" s="3">
-        <v>184000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1100</v>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -2665,7 +2665,7 @@
         <v>509000</v>
       </c>
       <c r="G61" s="3">
-        <v>509400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2705,17 +2705,17 @@
       <c r="F62" s="3">
         <v>821200</v>
       </c>
-      <c r="G62" s="3">
-        <v>667500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>15400</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
@@ -2869,17 +2869,17 @@
       <c r="F66" s="3">
         <v>1877400</v>
       </c>
-      <c r="G66" s="3">
-        <v>1753800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>16500</v>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
@@ -3091,17 +3091,17 @@
       <c r="F72" s="3">
         <v>-131500</v>
       </c>
-      <c r="G72" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-200</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -3255,17 +3255,17 @@
       <c r="F76" s="3">
         <v>1945700</v>
       </c>
-      <c r="G76" s="3">
-        <v>2084400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>395900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>398500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>399600</v>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>44255</v>
       </c>
       <c r="H80" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="I80" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="J80" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="K80" s="2">
         <v>43921</v>
@@ -3384,16 +3384,16 @@
         <v>-142300</v>
       </c>
       <c r="G81" s="3">
-        <v>-37100</v>
+        <v>31200</v>
       </c>
       <c r="H81" s="3">
-        <v>-2500</v>
+        <v>-27100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1100</v>
+        <v>-17500</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-23800</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3441,17 +3441,17 @@
       <c r="F83" s="3">
         <v>20200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3688,16 +3688,16 @@
         <v>39300</v>
       </c>
       <c r="G89" s="3">
-        <v>14800</v>
+        <v>-15600</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>-11900</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>12200</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>29800</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3745,17 +3745,17 @@
       <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3869,16 +3869,16 @@
         <v>-12400</v>
       </c>
       <c r="G94" s="3">
-        <v>-67300</v>
+        <v>-469200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-3900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4091,16 +4091,16 @@
         <v>-700</v>
       </c>
       <c r="G100" s="3">
-        <v>210200</v>
+        <v>634100</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>12300</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4131,17 +4131,17 @@
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4173,16 +4173,16 @@
         <v>25000</v>
       </c>
       <c r="G102" s="3">
-        <v>157700</v>
+        <v>149100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1000</v>
+        <v>-3400</v>
       </c>
       <c r="I102" s="3">
-        <v>-200</v>
+        <v>-12000</v>
       </c>
       <c r="J102" s="3">
-        <v>1600</v>
+        <v>25500</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,153 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F8" s="3">
         <v>137000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>78100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>66300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>81000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>84100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>81800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>83100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F9" s="3">
         <v>72800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>39600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>38200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>30200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +821,44 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F10" s="3">
         <v>64200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>38500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>28100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>42600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>52200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>51600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>52300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +868,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +891,40 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>16200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>15700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,90 +981,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F14" s="3">
         <v>33200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>7200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E15" s="3">
         <v>19500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8400</v>
       </c>
       <c r="J15" s="3">
         <v>8500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,40 +1095,42 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>167400</v>
+      </c>
+      <c r="F17" s="3">
         <v>191400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>91100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>93700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>121900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>83900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>76800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1084,38 +1138,44 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-54400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-40900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1185,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,38 +1208,40 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-140400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>42800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-17600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-16300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-19300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,38 +1251,44 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-147600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1298,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,16 +1313,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1250,11 +1330,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1265,40 +1345,46 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-75100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-168000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-17400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1306,49 +1392,61 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-31400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,40 +1486,46 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-64300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-169400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>33300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-27100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-17500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1429,40 +1533,46 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-59200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-20500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-142300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>31200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-27100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-17500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1580,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,38 +1768,44 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="F32" s="3">
         <v>20500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>140400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-42800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>17600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>16300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>19300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,40 +1815,46 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-59200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-20500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-142300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>31200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-27100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-17500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1862,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,40 +1909,46 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-59200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-20500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-142300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>31200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-27100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-17500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1798,54 +1956,66 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,26 +2050,28 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>155500</v>
+      </c>
+      <c r="F41" s="3">
         <v>56500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>473100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>220700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,26 +2140,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>155300</v>
+      </c>
+      <c r="F43" s="3">
         <v>104600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>67600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>60600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,17 +2178,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,90 +2234,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F45" s="3">
         <v>44000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>29600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>356100</v>
+      </c>
+      <c r="F46" s="3">
         <v>205100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>570300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>305300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,11 +2348,11 @@
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2165,26 +2375,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F48" s="3">
         <v>82300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>67000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>68100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,35 +2413,41 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5040500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4938300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4986600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3423000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3440800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,17 +2460,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,26 +2563,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,17 +2601,23 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,49 +2657,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5466000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5405500</v>
+      </c>
+      <c r="F54" s="3">
         <v>5289200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4070800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3823100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,67 +2746,75 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>125400</v>
+      </c>
+      <c r="F57" s="3">
         <v>94500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>58300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>51600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>91400</v>
+      </c>
+      <c r="F58" s="3">
         <v>11400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2559,117 +2827,135 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>355500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>223600</v>
+      </c>
+      <c r="F59" s="3">
         <v>189700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>408900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>121800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>440400</v>
+      </c>
+      <c r="F60" s="3">
         <v>295600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>473600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>181400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>865500</v>
+      </c>
+      <c r="F61" s="3">
         <v>869600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>504800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>509000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2691,49 +2977,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>615400</v>
+      </c>
+      <c r="F62" s="3">
         <v>717100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>657600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>821200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,49 +3165,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2320200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2219700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2182500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1955700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1877400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,40 +3419,46 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-211200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-152000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-131500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,40 +3607,46 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3145800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3185800</v>
+      </c>
+      <c r="F76" s="3">
         <v>3106700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2115100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1945700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,86 +3701,98 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-59200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-20500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-142300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>31200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-27100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-17500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3800,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,49 +3823,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>51100</v>
+      </c>
+      <c r="F83" s="3">
         <v>50500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>18500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>17300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>16900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,40 +4101,46 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>39300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-15600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>29800</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +4148,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-12400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-781500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-469200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4562,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F100" s="3">
         <v>379700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>254000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>634100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>12300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-19700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,86 +4609,104 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-412200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>251100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>149100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>25500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,46 +734,49 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E8" s="3">
         <v>160400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>84100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -780,41 +784,44 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E9" s="3">
         <v>78700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>72500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>72800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,41 +834,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E10" s="3">
         <v>81700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +906,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E12" s="3">
         <v>22600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,46 +1004,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>520400</v>
+      </c>
+      <c r="E14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1034,46 +1054,49 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E15" s="3">
         <v>21500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19500</v>
       </c>
       <c r="F15" s="3">
         <v>19500</v>
       </c>
       <c r="G15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H15" s="3">
         <v>3500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,43 +1123,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>696400</v>
+      </c>
+      <c r="E17" s="3">
         <v>174000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>167400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>191400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1144,41 +1171,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-535700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-54400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,41 +1243,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>64300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-140400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>42800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,41 +1291,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-469100</v>
+      </c>
+      <c r="E21" s="3">
         <v>32300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>92200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-147600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,14 +1359,14 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,8 +1376,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1351,43 +1391,46 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-523200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-75100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-168000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1398,46 +1441,49 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-26700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-31400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,43 +1541,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-409600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-169400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1539,43 +1591,46 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-368700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-59200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-142300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,41 +1841,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E32" s="3">
         <v>7400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-64300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>140400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-42800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,43 +1891,46 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-368700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-59200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-142300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,43 +1991,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-368700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-59200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-142300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,29 +2138,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E41" s="3">
         <v>129200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>473100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>220700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,29 +2236,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E43" s="3">
         <v>123300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>155300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>104600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2277,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,29 +2336,32 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E45" s="3">
         <v>51200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,12 +2371,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,29 +2386,32 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E46" s="3">
         <v>303600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>356100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>205100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>570300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>305300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,12 +2421,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,8 +2459,8 @@
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2381,29 +2486,32 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E48" s="3">
         <v>101700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>94000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2419,8 +2527,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2428,29 +2536,32 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4428800</v>
+      </c>
+      <c r="E49" s="3">
         <v>5040500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4938300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4986600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3423000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3440800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2466,8 +2577,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,29 +2686,32 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2727,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,29 +2786,32 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4852200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5466000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5405500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5289200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4070800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3823100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,12 +2821,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,29 +2878,30 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E57" s="3">
         <v>37900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>125400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>94500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,12 +2911,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,29 +2926,32 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
         <v>13200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>91400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +2967,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2842,29 +2976,32 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E59" s="3">
         <v>355500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>223600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>408900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>121800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,12 +3011,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,29 +3026,32 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E60" s="3">
         <v>406500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>440400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>295600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>473600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>181400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,12 +3061,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,29 +3076,32 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1046500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1050000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>865500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>869600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>504800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>509000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2983,29 +3126,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>422200</v>
+      </c>
+      <c r="E62" s="3">
         <v>566700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>615400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>717100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>657600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>821200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,12 +3161,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,29 +3326,32 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2111100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2320200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2219700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2182500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1955700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1877400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,12 +3361,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,29 +3596,32 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-166300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-155000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-211200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-152000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-131500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,11 +3631,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,29 +3796,32 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2741200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3145800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3185800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3106700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2115100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1945700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3645,11 +3831,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,43 +3951,46 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-368700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-59200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-142300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,46 +4023,47 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E83" s="3">
         <v>53300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,43 +4321,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29800</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,46 +4393,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3900</v>
       </c>
       <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-3900</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,46 +4541,49 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-146400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-781500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-469200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-3900</v>
       </c>
       <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>-3900</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,41 +4811,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>102300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>379700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>254000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>634100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,46 +4861,49 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4662,43 +4911,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>103000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-412200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>251100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>149100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,49 +737,52 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E8" s="3">
         <v>160700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>137000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -787,44 +790,47 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E9" s="3">
         <v>83300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>72500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,44 +843,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E10" s="3">
         <v>77400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E12" s="3">
         <v>25600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,49 +1023,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>520400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1057,49 +1076,52 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="3">
         <v>21000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>19500</v>
       </c>
       <c r="G15" s="3">
         <v>19500</v>
       </c>
       <c r="H15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I15" s="3">
         <v>3500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,46 +1149,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E17" s="3">
         <v>696400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>174000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>167400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>191400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>93700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1174,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-535700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-54400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,44 +1276,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>12500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>64300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-140400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>42800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,44 +1327,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-469100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>92200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-147600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,13 +1380,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1362,14 +1401,14 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,8 +1418,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1394,46 +1433,49 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-523200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-75100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-168000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1444,49 +1486,52 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-113700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-26700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-31400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1494,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,46 +1592,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-409600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-169400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1594,46 +1645,49 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-368700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-59200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-142300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,44 +1910,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-64300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>140400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-42800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,46 +1963,49 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-368700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-59200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-142300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,46 +2069,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-368700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-59200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-142300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2044,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,32 +2224,33 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E41" s="3">
         <v>98100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>155500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>473100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>220700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,32 +2328,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E43" s="3">
         <v>160100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>155300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>104600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2372,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2289,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,32 +2434,35 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E45" s="3">
         <v>42700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2374,12 +2472,12 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,32 +2487,35 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274700</v>
+      </c>
+      <c r="E46" s="3">
         <v>300800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>303600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>356100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>205100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>570300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>305300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,12 +2525,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,13 +2540,16 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>200</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2462,8 +2566,8 @@
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2489,32 +2593,35 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E48" s="3">
         <v>101800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>94000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2637,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2539,32 +2646,35 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4402000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4428800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5040500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4938300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4986600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3423000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3440800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2690,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,32 +2805,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E52" s="3">
         <v>20800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2849,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2739,8 +2858,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,32 +2911,35 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4792400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4852200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5466000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5405500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5289200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4070800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3823100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,12 +2949,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,32 +3008,33 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E57" s="3">
         <v>41700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>125400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>94500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2914,12 +3044,12 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,32 +3059,35 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>91400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3103,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2979,32 +3112,35 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E59" s="3">
         <v>334000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>355500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>223600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>408900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>121800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,12 +3150,12 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,32 +3165,35 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E60" s="3">
         <v>388800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>406500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>440400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>295600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>473600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>181400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,12 +3203,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,32 +3218,35 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1042500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1046500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1050000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>865500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>869600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>504800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>509000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3129,32 +3271,35 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>392400</v>
+      </c>
+      <c r="E62" s="3">
         <v>422200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>566700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>615400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>717100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>657600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>821200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3164,12 +3309,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,32 +3483,35 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2028400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2111100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2320200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2219700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2182500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1955700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1877400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,12 +3521,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,32 +3769,35 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-530200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-535000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-166300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-155000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-211200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-152000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-131500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3634,11 +3807,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,32 +3981,35 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2741200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3145800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3185800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3106700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2115100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1945700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3834,11 +4019,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,46 +4145,49 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-368700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-59200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-142300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,49 +4221,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E83" s="3">
         <v>54100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>51100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4074,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,46 +4537,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29800</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,49 +4613,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3900</v>
       </c>
       <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-3900</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4444,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,49 +4770,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-146400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-781500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-469200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-3900</v>
       </c>
       <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>-3900</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4594,8 +4823,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>102300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>77700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>379700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>254000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>634100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,49 +5109,52 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4914,46 +5162,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>103000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-412200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>251100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>149100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -4962,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,52 +741,55 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E8" s="3">
         <v>164900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>144200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -793,47 +797,50 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E9" s="3">
         <v>80800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,47 +853,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E10" s="3">
         <v>84200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,38 +943,38 @@
         <v>24900</v>
       </c>
       <c r="E12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F12" s="3">
         <v>25600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,52 +1043,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>520400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1079,52 +1099,55 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E15" s="3">
         <v>20000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>19500</v>
       </c>
       <c r="H15" s="3">
         <v>19500</v>
       </c>
       <c r="I15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,49 +1176,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>555100</v>
+      </c>
+      <c r="E17" s="3">
         <v>171100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>696400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>174000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>167400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>191400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>79300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1203,47 +1230,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-388800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-535700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-54400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,47 +1310,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>64300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-140400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>42800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-370400</v>
+      </c>
+      <c r="E21" s="3">
         <v>50100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-469100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>92200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-147600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,16 +1420,19 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1404,14 +1444,14 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1461,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1436,49 +1476,52 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-423900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-523200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-75100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-168000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1489,52 +1532,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-113700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-31400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,49 +1644,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-303500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-409600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-169400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1648,49 +1700,52 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-368700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-59200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-142300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,47 +1980,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-64300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>140400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-42800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,49 +2036,52 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-368700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-59200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-142300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,49 +2148,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-368700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-59200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-142300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,35 +2311,36 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E41" s="3">
         <v>85700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>155500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>473100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>220700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,35 +2421,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E43" s="3">
         <v>154100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>160100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>155300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>104600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2468,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,35 +2533,38 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
         <v>35000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,12 +2574,12 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,35 +2589,38 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E46" s="3">
         <v>274700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>303600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>356100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>205100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>570300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>305300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,12 +2630,12 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,16 +2645,19 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>200</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2569,8 +2674,8 @@
       <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2596,35 +2701,38 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E48" s="3">
         <v>94100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>82300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2748,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2649,35 +2757,38 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3978900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4402000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4428800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5040500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4938300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4986600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3423000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3440800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2804,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,35 +2925,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E52" s="3">
         <v>21500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2852,8 +2972,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,35 +3037,38 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4792400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4852200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5466000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5405500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5289200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4070800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3823100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2952,12 +3078,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,35 +3139,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="3">
         <v>35800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>125400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>94500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3047,12 +3178,12 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,35 +3193,38 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E58" s="3">
         <v>23000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>91400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3240,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3115,35 +3249,38 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E59" s="3">
         <v>281100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>334000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>355500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>223600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>189700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>408900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>121800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3153,12 +3290,12 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,35 +3305,38 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>336200</v>
+      </c>
+      <c r="E60" s="3">
         <v>339800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>388800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>406500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>440400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>295600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>473600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>181400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3206,12 +3346,12 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,35 +3361,38 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1044700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1042500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1046500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1050000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>865500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>869600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>504800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>509000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3274,35 +3417,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E62" s="3">
         <v>392400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>422200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>566700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>615400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>717100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>657600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>821200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3312,12 +3458,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,35 +3641,38 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1896300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2028400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2111100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2320200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2219700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2182500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1955700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1877400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3524,12 +3682,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,35 +3943,38 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-803700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-530200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-535000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-155000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-211200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-152000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-131500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3810,11 +3984,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,35 +4167,38 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2503900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2764000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2741200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3145800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3185800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3106700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2115100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1945700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,11 +4208,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,49 +4340,52 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-368700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-59200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-142300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,52 +4420,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E83" s="3">
         <v>52500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,49 +4754,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>41000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29800</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,52 +4834,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3900</v>
       </c>
       <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-3900</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,52 +5000,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-146400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-781500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-469200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-3900</v>
       </c>
       <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>-3900</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5302,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E100" s="3">
         <v>7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>102300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>379700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>254000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>634100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,52 +5358,55 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5165,49 +5414,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-412200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>251100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>149100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,55 +745,58 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E8" s="3">
         <v>166300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>164900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>144200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -800,50 +804,53 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E9" s="3">
         <v>79300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,50 +863,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E10" s="3">
         <v>87100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>84200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>77400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,50 +947,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24900</v>
+        <v>25900</v>
       </c>
       <c r="E12" s="3">
         <v>24900</v>
       </c>
       <c r="F12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G12" s="3">
         <v>25600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14600</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,55 +1063,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>410400</v>
+      </c>
+      <c r="E14" s="3">
         <v>388700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>520400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1102,55 +1122,58 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E15" s="3">
         <v>20300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>19500</v>
       </c>
       <c r="I15" s="3">
         <v>19500</v>
       </c>
       <c r="J15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,52 +1203,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>582800</v>
+      </c>
+      <c r="E17" s="3">
         <v>555100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>696400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>167400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>191400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>91100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1233,50 +1260,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-388800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-535700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,50 +1344,51 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>64300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-140400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,50 +1401,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-373800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-370400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-469100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>92200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-147600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,10 +1472,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1447,14 +1487,14 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,8 +1504,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1479,52 +1519,55 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-427200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-423900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-523200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-75100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-168000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1535,55 +1578,58 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-120400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-113700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-26700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-31400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,52 +1696,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-360900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-303500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-409600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-169400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1703,52 +1755,55 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-273500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-368700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-59200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-142300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,50 +2050,53 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-64300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>140400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,52 +2109,55 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-273500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-368700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-59200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-142300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,52 +2227,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-273500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-368700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-59200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-142300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,38 +2398,39 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E41" s="3">
         <v>93000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>129200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>155500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>473100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>220700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,38 +2514,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E43" s="3">
         <v>179400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>154100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>160100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>123300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>155300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>104600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,8 +2564,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,38 +2632,41 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E45" s="3">
         <v>31900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,12 +2676,12 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,38 +2691,41 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E46" s="3">
         <v>304400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>274700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>303600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>356100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>205100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>570300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>305300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2633,12 +2735,12 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,8 +2764,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>200</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2677,8 +2782,8 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>200</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2704,38 +2809,41 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E48" s="3">
         <v>91200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>94100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>82300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2859,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2760,38 +2868,41 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3525600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3978900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4402000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4428800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5040500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4938300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4986600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3423000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3440800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2807,8 +2918,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,38 +3045,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E52" s="3">
         <v>25700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2975,8 +3095,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,38 +3163,41 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3931100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4400200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4792400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4852200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5466000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5405500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5289200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4070800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3823100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,12 +3207,12 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,38 +3270,39 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E57" s="3">
         <v>35400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>125400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>94500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,12 +3312,12 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,38 +3327,41 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E58" s="3">
         <v>13700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>91400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,8 +3377,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3252,38 +3386,41 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E59" s="3">
         <v>287000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>281100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>334000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>355500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>223600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>189700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>408900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>121800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,12 +3430,12 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,38 +3445,41 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>305800</v>
+      </c>
+      <c r="E60" s="3">
         <v>336200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>339800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>388800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>406500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>440400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>295600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>473600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>181400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,12 +3489,12 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,38 +3504,41 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1044700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1042500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1046500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1050000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>865500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>869600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>504800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>509000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3420,38 +3563,41 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E62" s="3">
         <v>292400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>392400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>422200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>566700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>615400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>717100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>657600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>821200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,12 +3607,12 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,38 +3799,41 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1741800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1896300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2028400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2111100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2320200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2219700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2182500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1955700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1877400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,12 +3843,12 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,38 +4117,41 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1129100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-803700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-530200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-535000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-166300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-155000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-211200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-152000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-131500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3987,11 +4161,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,38 +4353,41 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2189300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2503900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2764000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2741200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3145800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3185800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3106700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2115100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1945700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4211,11 +4397,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,52 +4535,55 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-273500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-368700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-59200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-142300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,55 +4619,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E83" s="3">
         <v>53400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,52 +4971,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
         <v>24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29800</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,55 +5055,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-3900</v>
       </c>
       <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-3900</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,55 +5230,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-781500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-469200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-3900</v>
       </c>
       <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>-3900</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,50 +5548,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>102300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>379700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>634100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,55 +5607,58 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5417,52 +5666,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>103000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-412200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>251100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>149100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ETWO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>ETWO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,58 +749,61 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E8" s="3">
         <v>160100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>166300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>164900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>160400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>144200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>137000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -807,53 +811,56 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E9" s="3">
         <v>80700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>80800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>72800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,53 +873,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E10" s="3">
         <v>79400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>84200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>77400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,53 +961,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E12" s="3">
         <v>25900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24900</v>
       </c>
       <c r="F12" s="3">
         <v>24900</v>
       </c>
       <c r="G12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H12" s="3">
         <v>25600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14600</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,58 +1083,61 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>410400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>388700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>520400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1125,58 +1145,61 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="3">
         <v>20100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>19500</v>
       </c>
       <c r="J15" s="3">
         <v>19500</v>
       </c>
       <c r="K15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,55 +1230,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E17" s="3">
         <v>582800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>555100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>171100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>696400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>167400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>191400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>91100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1263,53 +1290,56 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-422700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-388800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-535700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-54400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,53 +1378,54 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>64300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-140400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>42800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,53 +1438,56 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-373800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-370400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-469100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>92200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-147600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,22 +1500,25 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1490,14 +1530,14 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1507,8 +1547,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1522,55 +1562,58 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-427200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-423900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-523200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-75100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-168000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1581,58 +1624,61 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-66300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-120400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-113700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-26700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-31400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,55 +1748,58 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-360900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-303500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-409600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-169400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1758,55 +1810,58 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-325400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-273500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-368700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-59200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-142300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,53 +2120,56 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-64300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>140400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-42800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,55 +2182,58 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-325400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-273500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-368700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-59200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-142300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,55 +2306,58 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-325400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-273500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-368700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-59200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-142300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,41 +2485,42 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E41" s="3">
         <v>119500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>155500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>473100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>220700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,41 +2607,44 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E43" s="3">
         <v>132100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>179400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>154100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>160100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>155300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>104600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,8 +2660,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,41 +2731,44 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E45" s="3">
         <v>36100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2679,12 +2778,12 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,41 +2793,44 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E46" s="3">
         <v>287700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>304400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>274700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>303600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>356100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>205100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>570300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>305300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,12 +2840,12 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,8 +2872,8 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -2785,8 +2890,8 @@
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2812,41 +2917,44 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E48" s="3">
         <v>91800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>91200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>94100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>94000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2970,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2871,41 +2979,44 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3493000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3525600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3978900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4402000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4428800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5040500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4938300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4986600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3423000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3440800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,8 +3032,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,41 +3165,44 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E52" s="3">
         <v>26100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3218,8 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,41 +3289,44 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3895900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3931100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4400200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4792400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4852200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5466000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5405500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5289200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4070800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3823100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,12 +3336,12 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,41 +3401,42 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E57" s="3">
         <v>31000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41700</v>
       </c>
-      <c r="H57" s="3">
-        <v>37900</v>
-      </c>
       <c r="I57" s="3">
-        <v>125400</v>
+        <v>35600</v>
       </c>
       <c r="J57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K57" s="3">
         <v>94500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,12 +3446,12 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,41 +3461,44 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E58" s="3">
         <v>13600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>91400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3514,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3389,41 +3523,44 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E59" s="3">
         <v>261200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>287000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>281100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>334000</v>
       </c>
-      <c r="H59" s="3">
-        <v>355500</v>
-      </c>
       <c r="I59" s="3">
-        <v>223600</v>
+        <v>357800</v>
       </c>
       <c r="J59" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K59" s="3">
         <v>189700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>408900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>121800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,12 +3570,12 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,41 +3585,44 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E60" s="3">
         <v>305800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>336200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>339800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>388800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>406500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>440400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>295600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>473600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,12 +3632,12 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,41 +3647,44 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1041300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1043000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1044700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1042500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1046500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1050000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>865500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>869600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>504800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>509000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3566,41 +3709,44 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E62" s="3">
         <v>205600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>292400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>392400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>422200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>566700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>615400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>717100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>657600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>821200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,12 +3756,12 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,41 +3957,44 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1719900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1741800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1896300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2028400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2111100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2320200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2219700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2182500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1955700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1877400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,12 +4004,12 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,41 +4291,44 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1163900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1129100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-803700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-530200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-535000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-166300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-155000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-211200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-131500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4164,11 +4338,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,41 +4539,44 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2189300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2503900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2764000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2741200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3145800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3185800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3106700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2115100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1945700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,11 +4586,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,55 +4730,58 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-325400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-273500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-368700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-59200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-142300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,58 +4818,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E83" s="3">
         <v>53300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,55 +5188,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>29800</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,58 +5276,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3900</v>
       </c>
       <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-3900</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,58 +5460,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-64000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-146400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-781500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-469200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-3900</v>
       </c>
       <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>-3900</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,53 +5794,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>102300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>77700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>379700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>634100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,58 +5856,61 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5669,55 +5918,58 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>29000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>103000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-412200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>251100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>149100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
